--- a/docs/画面項目定義書/user_detail_edit.xlsx
+++ b/docs/画面項目定義書/user_detail_edit.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44332C02-4F33-447D-99E0-B1D1AB27CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE10AC8A-174C-4711-B816-9E84E2C3F7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>日本工学院</t>
   </si>
@@ -139,35 +134,13 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>サイドバー項目：ダッシュボード</t>
-  </si>
-  <si>
-    <t>リンク</t>
-  </si>
-  <si>
-    <t>ダッシュボード画面へ遷移</t>
-  </si>
-  <si>
-    <t>サイドバー項目：利用者管理</t>
-  </si>
-  <si>
-    <t>サイドバー項目：インスタンスタイプ管理</t>
-  </si>
-  <si>
-    <t>インスタンスタイプ管理画面へ遷移</t>
-  </si>
-  <si>
-    <t>サイドバー項目：イメージ管理</t>
-  </si>
-  <si>
-    <t>イメージ管理画面へ遷移</t>
-  </si>
-  <si>
-    <t>リンク</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>利用者管理画面へ遷移</t>
+    <t>利用者サイドバー</t>
+  </si>
+  <si>
+    <t>Ref(利用者サイドバー)</t>
+  </si>
+  <si>
+    <t>ユーザーエンティティより</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -484,7 +457,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +557,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1035,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1154,7 +1145,9 @@
         <v>19</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
         <v>27</v>
@@ -1173,7 +1166,9 @@
       <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="33" t="s">
         <v>24</v>
       </c>
@@ -1312,73 +1307,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.5">
+    <row r="18" spans="1:7" ht="13.25">
       <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="s">
-        <v>39</v>
-      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="13.25">
       <c r="A19" s="21">
         <v>11</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.5">
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.25">
       <c r="A20" s="28">
         <v>12</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="31"/>
       <c r="E20" s="32"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="13.25">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="34" t="s">
-        <v>44</v>
-      </c>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" ht="13.25">
       <c r="A22" s="28">

--- a/docs/画面項目定義書/user_detail_edit.xlsx
+++ b/docs/画面項目定義書/user_detail_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE10AC8A-174C-4711-B816-9E84E2C3F7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C20BD-6050-465D-8B9E-4AEDCD1358B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2220" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>日本工学院</t>
   </si>
@@ -457,7 +457,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,24 +557,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1026,21 +1008,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1033,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1060,7 +1042,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1069,7 +1051,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1078,7 +1060,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1073,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1084,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1111,7 +1093,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.25">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1153,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36.75">
+    <row r="10" spans="1:7" ht="36">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1166,7 +1148,7 @@
       <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="33" t="s">
@@ -1176,7 +1158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.5">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1189,7 +1171,9 @@
       <c r="D11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.5">
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1210,7 +1194,9 @@
       <c r="D12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="33" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.5">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1231,7 +1217,9 @@
       <c r="D13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="33" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.5">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1256,7 +1244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.25">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1273,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.25">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1290,7 +1278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1307,22 +1295,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.25">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1333,7 +1321,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1344,7 +1332,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1355,7 +1343,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1366,7 +1354,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1377,7 +1365,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1388,7 +1376,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1399,7 +1387,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1408,7 +1396,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1417,7 +1405,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1426,7 +1414,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
